--- a/data/cheese/ngs/ASV_table.xlsx
+++ b/data/cheese/ngs/ASV_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ags-fs-profiles\profiles$\RDF\F80836430\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ags-fs-profiles\profiles$\RDF\F80836430\Documents\tmp_manuscript_Luca\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -936,12 +936,6 @@
     <t>o</t>
   </si>
   <si>
-    <t>No_Adj_Culture</t>
-  </si>
-  <si>
-    <t>No_Adj_Culture.3.1</t>
-  </si>
-  <si>
     <t>eRWC.y.3.1</t>
   </si>
   <si>
@@ -960,9 +954,6 @@
     <t>eRWC.HS.o.3.1</t>
   </si>
   <si>
-    <t>No_Adj_Culture.3.2</t>
-  </si>
-  <si>
     <t>eRWC.y.3.2</t>
   </si>
   <si>
@@ -1009,6 +1000,15 @@
   </si>
   <si>
     <t>culture_type</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Control.3.1</t>
+  </si>
+  <si>
+    <t>Control.3.2</t>
   </si>
 </sst>
 </file>
@@ -12462,7 +12462,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12492,13 +12492,13 @@
         <v>281</v>
       </c>
       <c r="E1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H1" t="s">
         <v>282</v>
@@ -12531,7 +12531,7 @@
         <v>291</v>
       </c>
       <c r="R1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -12545,16 +12545,16 @@
         <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="H2">
         <v>120</v>
@@ -12601,16 +12601,16 @@
         <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="H3">
         <v>120</v>
@@ -12657,10 +12657,10 @@
         <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
         <v>292</v>
@@ -12713,10 +12713,10 @@
         <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
         <v>300</v>
@@ -12769,10 +12769,10 @@
         <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
         <v>301</v>
@@ -12825,10 +12825,10 @@
         <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
         <v>292</v>
@@ -12881,10 +12881,10 @@
         <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
         <v>300</v>
@@ -12937,10 +12937,10 @@
         <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
         <v>301</v>
@@ -12993,16 +12993,16 @@
         <v>273</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="H10">
         <v>120</v>
@@ -13049,16 +13049,16 @@
         <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="H11">
         <v>120</v>
@@ -13105,10 +13105,10 @@
         <v>275</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F12" t="s">
         <v>292</v>
@@ -13161,10 +13161,10 @@
         <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F13" t="s">
         <v>300</v>
@@ -13217,10 +13217,10 @@
         <v>277</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F14" t="s">
         <v>301</v>
@@ -13273,10 +13273,10 @@
         <v>278</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F15" t="s">
         <v>292</v>
@@ -13329,10 +13329,10 @@
         <v>279</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
         <v>300</v>
@@ -13385,10 +13385,10 @@
         <v>280</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F17" t="s">
         <v>301</v>
